--- a/raw/SEDstock.xlsx
+++ b/raw/SEDstock.xlsx
@@ -450,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>92441.5841584159</v>
+        <v>51094.5951837363</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>75113.2710280374</v>
+        <v>53877.4077973405</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>45133.8461538461</v>
+        <v>32607.5254551511</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>56522.1621621621</v>
+        <v>43941.1700213026</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>61641.0576923076</v>
+        <v>47324.7106560613</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>68385.8823529411</v>
+        <v>52140.3112676543</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>67498.8461538461</v>
+        <v>51670.1493050006</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>75611.9620253166</v>
+        <v>57964.9834319399</v>
       </c>
     </row>
     <row r="10">
@@ -586,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>59640.0000000001</v>
+        <v>45686.3575797718</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>89700.5</v>
+        <v>53072.2256547165</v>
       </c>
     </row>
     <row r="12">
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>109845.995085995</v>
+        <v>70902.8375162408</v>
       </c>
     </row>
     <row r="13">
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>108794</v>
+        <v>64820.0079365079</v>
       </c>
     </row>
     <row r="14">
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>127880.935251799</v>
+        <v>78007.0093600354</v>
       </c>
     </row>
     <row r="15">
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>118860</v>
+        <v>14667.6451259584</v>
       </c>
     </row>
     <row r="16">
@@ -688,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>121406.47826087</v>
+        <v>70900.423569342</v>
       </c>
     </row>
     <row r="17">
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>90906.8548387098</v>
+        <v>56822.4499000145</v>
       </c>
     </row>
     <row r="18">
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>53416.027118644</v>
+        <v>31100.9146312414</v>
       </c>
     </row>
     <row r="19">
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>95324.1279069768</v>
+        <v>58536.022986298</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>95649.5647058824</v>
+        <v>53429.5301719559</v>
       </c>
     </row>
     <row r="21">
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>96011.7469879516</v>
+        <v>55616.1949547721</v>
       </c>
     </row>
     <row r="22">
@@ -790,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>93467.8723404258</v>
+        <v>59328.7241839147</v>
       </c>
     </row>
     <row r="23">
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>55036.8965517241</v>
+        <v>38109.8612038852</v>
       </c>
     </row>
     <row r="24">
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>45877.1335504885</v>
+        <v>33476.1769579088</v>
       </c>
     </row>
     <row r="25">
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>75240</v>
+        <v>40244.6511627907</v>
       </c>
     </row>
     <row r="26">
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>87554.584651375</v>
+        <v>52702.5258913661</v>
       </c>
     </row>
     <row r="27">
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>63864.167597959</v>
+        <v>37439.8610578983</v>
       </c>
     </row>
     <row r="28">
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>87492.1252371917</v>
+        <v>56328.9184383845</v>
       </c>
     </row>
     <row r="29">
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>92739.4827586208</v>
+        <v>52491.4609308647</v>
       </c>
     </row>
     <row r="30">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>103216.587473002</v>
+        <v>67881.0278287562</v>
       </c>
     </row>
     <row r="31">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>97487.9237288136</v>
+        <v>67611.0738855275</v>
       </c>
     </row>
     <row r="32">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>94398.7746170678</v>
+        <v>66559.2072306559</v>
       </c>
     </row>
     <row r="33">
@@ -973,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>97633.1481481481</v>
+        <v>68595.802846213</v>
       </c>
     </row>
     <row r="34">
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>91073.6842105266</v>
+        <v>62568.0727468239</v>
       </c>
     </row>
     <row r="35">
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>107095.175257732</v>
+        <v>71820.2802541736</v>
       </c>
     </row>
     <row r="36">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>94677.7667493795</v>
+        <v>53327.3740591811</v>
       </c>
     </row>
     <row r="37">
@@ -1041,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>93535.3398058252</v>
+        <v>56280.1729368932</v>
       </c>
     </row>
     <row r="38">
@@ -1058,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>98704.4622425631</v>
+        <v>61086.2268525507</v>
       </c>
     </row>
     <row r="39">
@@ -1075,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>96247.6247030878</v>
+        <v>59130.0682342344</v>
       </c>
     </row>
     <row r="40">
@@ -1092,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>90127.659574468</v>
+        <v>58221.3260239501</v>
       </c>
     </row>
     <row r="41">
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>105054.23076923</v>
+        <v>65572.9679395993</v>
       </c>
     </row>
     <row r="42">
@@ -1126,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>102848.644067797</v>
+        <v>50863.4110169494</v>
       </c>
     </row>
     <row r="43">
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>95193.3495145632</v>
+        <v>61779.694536015</v>
       </c>
     </row>
     <row r="44">
@@ -1160,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>93691.8620689654</v>
+        <v>61027.9716944656</v>
       </c>
     </row>
     <row r="45">
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>96638.2608695649</v>
+        <v>63897.4293181276</v>
       </c>
     </row>
     <row r="46">
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>92468.4198113206</v>
+        <v>60848.2651517373</v>
       </c>
     </row>
     <row r="47">
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>93483.8106235568</v>
+        <v>61033.1617921388</v>
       </c>
     </row>
     <row r="48">
@@ -1228,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>88094.309927361</v>
+        <v>48449.7332861056</v>
       </c>
     </row>
     <row r="49">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>102073.745454546</v>
+        <v>54805.7494825175</v>
       </c>
     </row>
     <row r="50">
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>88162.3274759053</v>
+        <v>54311.8136840149</v>
       </c>
     </row>
     <row r="51">
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>70949.8652401123</v>
+        <v>36810.0761045568</v>
       </c>
     </row>
   </sheetData>
